--- a/storage/op/op-carga.xlsx
+++ b/storage/op/op-carga.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
   <si>
     <t>numero_op</t>
   </si>
@@ -53,6 +53,18 @@
   <si>
     <t>suelo_color</t>
   </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>andres</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>mauricio</t>
+  </si>
 </sst>
 </file>
 
@@ -375,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -505,6 +517,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -550,9 +573,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +938,7 @@
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +960,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>900</v>
       </c>
@@ -959,8 +986,11 @@
       <c r="G2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>901</v>
       </c>
@@ -982,8 +1012,11 @@
       <c r="G3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>902</v>
       </c>
@@ -1004,6 +1037,399 @@
       </c>
       <c r="G4">
         <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>903</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>904</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>905</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>906</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>907</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>908</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>909</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>910</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>911</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>912</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>913</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>914</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>915</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>916</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>917</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/storage/op/op-carga.xlsx
+++ b/storage/op/op-carga.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1036,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1088,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1114,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1140,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1166,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1192,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1218,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1296,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1400,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1426,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
